--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed3/result_data_KNN.xlsx
@@ -544,7 +544,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.6</v>
+        <v>5.832000000000001</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.75</v>
+        <v>6.039</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.506</v>
+        <v>4.951000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.516</v>
+        <v>5.137</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.869999999999999</v>
+        <v>5.510999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -950,7 +950,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.258000000000001</v>
+        <v>8.657</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.763</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.506</v>
+        <v>5.138999999999999</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>4.890000000000001</v>
+        <v>5.459999999999999</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.282</v>
+        <v>7.410000000000001</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>5.326000000000001</v>
+        <v>5.040000000000001</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>8.267999999999999</v>
+        <v>7.961000000000001</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.529999999999999</v>
+        <v>5.799</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.098000000000001</v>
+        <v>5.457</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1608,7 +1608,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.854000000000001</v>
+        <v>5.82</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>6.11</v>
+        <v>5.470000000000001</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1860,7 +1860,7 @@
         <v>-20.62</v>
       </c>
       <c r="B102" t="n">
-        <v>6.868</v>
+        <v>7.211999999999999</v>
       </c>
       <c r="C102" t="n">
         <v>-12.7</v>
